--- a/Docs/Frontend.xlsx
+++ b/Docs/Frontend.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Index.html</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Index.js</t>
   </si>
   <si>
-    <t xml:space="preserve">Bejelentkezés </t>
-  </si>
-  <si>
-    <t>Regisztráció</t>
-  </si>
-  <si>
     <t>reg.js</t>
   </si>
   <si>
@@ -47,39 +41,15 @@
     <t>user.js</t>
   </si>
   <si>
-    <t>Új elem hozzáadása</t>
-  </si>
-  <si>
-    <t>Utolsó havi adatok listázása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Összegzés </t>
-  </si>
-  <si>
     <t>keres.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Új elem hozzáadása </t>
-  </si>
-  <si>
-    <t>Kategóriák kiírása</t>
-  </si>
-  <si>
     <t>keres.js</t>
   </si>
   <si>
     <t>post.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Lekérdezés </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lekért adatok megjelenítése </t>
-  </si>
-  <si>
-    <t>Adott poszt módosítása / törlése</t>
-  </si>
-  <si>
     <t>post.js</t>
   </si>
   <si>
@@ -92,16 +62,88 @@
     <t>adatok.js</t>
   </si>
   <si>
-    <t>Felhasználó adatainak a kiírása</t>
-  </si>
-  <si>
-    <t>Adatok módosítása / törlése</t>
-  </si>
-  <si>
     <t>HTML</t>
   </si>
   <si>
     <t>JS</t>
+  </si>
+  <si>
+    <t>Felhasználó</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>adminhome.html</t>
+  </si>
+  <si>
+    <t>adminhome.js</t>
+  </si>
+  <si>
+    <t>felhasználók kiírása</t>
+  </si>
+  <si>
+    <t>Felhasználók.html</t>
+  </si>
+  <si>
+    <t>Felhasználók.js</t>
+  </si>
+  <si>
+    <t>(Minden,passzív,aktív) felhasználók</t>
+  </si>
+  <si>
+    <t xml:space="preserve">felhasználók törlése </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minden passzív felhasználó törlése </t>
+  </si>
+  <si>
+    <t>felhasználók számának kiírása</t>
+  </si>
+  <si>
+    <t>kategoriak.html</t>
+  </si>
+  <si>
+    <t>kategoriak.js</t>
+  </si>
+  <si>
+    <t>új kategória hozzáadása</t>
+  </si>
+  <si>
+    <t>kategóriák kiírása</t>
+  </si>
+  <si>
+    <t>kategóriák módosítása</t>
+  </si>
+  <si>
+    <t>felhasználó adatainak a kiírása</t>
+  </si>
+  <si>
+    <t>adatok módosítása / törlése</t>
+  </si>
+  <si>
+    <t>adott poszt módosítása / törlése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lekérdezés </t>
+  </si>
+  <si>
+    <t xml:space="preserve">összegzés </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lekért adatok megjelenítése </t>
+  </si>
+  <si>
+    <t>új elem hozzáadása</t>
+  </si>
+  <si>
+    <t>utolsó havi adatok listázása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bejelentkezés </t>
+  </si>
+  <si>
+    <t>regisztráció</t>
   </si>
 </sst>
 </file>
@@ -118,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +191,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -185,6 +233,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -465,15 +520,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
@@ -481,232 +536,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
       <c r="B10" s="8"/>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
